--- a/PYTHON/data.xlsx
+++ b/PYTHON/data.xlsx
@@ -11,10 +11,6 @@
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -346,8 +342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A567" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A136" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
